--- a/results_final/ti_MH.xlsx
+++ b/results_final/ti_MH.xlsx
@@ -486,91 +486,91 @@
         <v>0.98</v>
       </c>
       <c r="D2">
-        <v>1.556651769687069</v>
+        <v>1.556852182785387</v>
       </c>
       <c r="E2">
-        <v>2.199993090022552</v>
+        <v>2.200972217961598</v>
       </c>
       <c r="F2">
-        <v>2.841278319324851</v>
+        <v>2.843970303975727</v>
       </c>
       <c r="G2">
-        <v>3.443635625318494</v>
+        <v>3.449204009423614</v>
       </c>
       <c r="H2">
-        <v>3.987925935619973</v>
+        <v>3.997606512056884</v>
       </c>
       <c r="I2">
-        <v>4.466136161390205</v>
+        <v>4.481091520898588</v>
       </c>
       <c r="J2">
-        <v>4.876700952141193</v>
+        <v>4.897894991379703</v>
       </c>
       <c r="K2">
-        <v>5.221124581854695</v>
+        <v>5.249220371899232</v>
       </c>
       <c r="L2">
-        <v>5.501874227777355</v>
+        <v>5.537171943426475</v>
       </c>
       <c r="M2">
-        <v>5.71353392352631</v>
+        <v>5.75593825485829</v>
       </c>
       <c r="N2">
-        <v>5.859331212081926</v>
+        <v>5.908298389281907</v>
       </c>
       <c r="O2">
-        <v>5.940066563300348</v>
+        <v>5.994516560582489</v>
       </c>
       <c r="P2">
-        <v>5.953763503690089</v>
+        <v>6.011952916856113</v>
       </c>
       <c r="Q2">
-        <v>5.912542200319472</v>
+        <v>5.972692166884739</v>
       </c>
       <c r="R2">
-        <v>5.840389268682625</v>
+        <v>5.9013378090857</v>
       </c>
       <c r="S2">
-        <v>5.753048987212703</v>
+        <v>5.814056223467436</v>
       </c>
       <c r="T2">
-        <v>5.66065205803866</v>
+        <v>5.721266013410428</v>
       </c>
       <c r="U2">
-        <v>5.56951801360149</v>
+        <v>5.629481752679813</v>
       </c>
       <c r="V2">
-        <v>5.483394331203923</v>
+        <v>5.54258149327141</v>
       </c>
       <c r="W2">
-        <v>5.404309836325174</v>
+        <v>5.462679813898385</v>
       </c>
       <c r="X2">
-        <v>5.333162676988702</v>
+        <v>5.390729489072606</v>
       </c>
       <c r="Y2">
-        <v>5.270124743857312</v>
+        <v>5.326935520204579</v>
       </c>
       <c r="Z2">
-        <v>5.214918614198411</v>
+        <v>5.271038858708282</v>
       </c>
       <c r="AA2">
-        <v>5.167005697670259</v>
+        <v>5.222509345884916</v>
       </c>
       <c r="AB2">
-        <v>5.125712449584505</v>
+        <v>5.18067531492981</v>
       </c>
       <c r="AC2">
-        <v>5.090313432904407</v>
+        <v>5.144809038699742</v>
       </c>
       <c r="AD2">
-        <v>5.060084426538047</v>
+        <v>5.114181504137945</v>
       </c>
       <c r="AE2">
-        <v>5.034334885208028</v>
+        <v>5.088096020801271</v>
       </c>
       <c r="AF2">
-        <v>5.016258686975297</v>
+        <v>5.069790336907923</v>
       </c>
     </row>
   </sheetData>
